--- a/biology/Zoologie/Chasse_au_leurre/Chasse_au_leurre.xlsx
+++ b/biology/Zoologie/Chasse_au_leurre/Chasse_au_leurre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chasse au leurre est une chasse fictive où le gibier est remplacé par un leurre.
 </t>
@@ -511,11 +523,13 @@
           <t>Différentes chasses au leurre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chasse à l'odorat :
 La chasse au leurre olfactif remplace une chasse à courre où les chiens poursuivent un leurre à l'odeur très forte.
-Jasper Hall Livingston organisa la première chasse au leurre à Pau le 26 novembre 1847 en direction de Gardères, sur une distance de 21 km (13 miles) en une heure[1].
+Jasper Hall Livingston organisa la première chasse au leurre à Pau le 26 novembre 1847 en direction de Gardères, sur une distance de 21 km (13 miles) en une heure.
 Chasse à vue :
 La poursuite à vue sur leurre ou coursing est une simulation de chasse au lièvre où 2 lévriers sont lâchés à la poursuite d'un leurre treuillé (remplaçant la fuite d'un gibier). Cette épreuve sportive a pour objectif d'évaluer leur instinct de chasseurs à vue. Elle se substitue à une chasse au lièvre réelle avec Lévriers qui a été interdite par la loi du 3 mai 1844.</t>
         </is>
@@ -545,7 +559,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce type de chasses est apprécié par les personnes qui ne veulent pas de mise à mort mais qui souhaitent tout de même profiter des talents de leurs chiens. 
 Elle est également pratiquée lorsque la chasse est interdite.
